--- a/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\여행객 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>경기도</t>
   </si>
@@ -250,21 +250,338 @@
   </si>
   <si>
     <t>충청북도</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 01월</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 02월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 03월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 04월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 05월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 06월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 07월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 08월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 09월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -291,11 +608,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,19 +1087,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1:BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="61" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="61" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -963,8 +1282,44 @@
       <c r="BI1" t="s">
         <v>56</v>
       </c>
+      <c r="BJ1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1504,7 @@
         <v>39397941</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1334,48 +1689,192 @@
         <v>251897976</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
+      <c r="B4">
+        <v>52748983</v>
+      </c>
+      <c r="C4">
+        <v>49410808</v>
+      </c>
+      <c r="D4">
+        <v>56243537</v>
+      </c>
+      <c r="E4">
+        <v>52474678</v>
+      </c>
+      <c r="F4">
+        <v>57713155</v>
+      </c>
+      <c r="G4">
+        <v>54252403</v>
+      </c>
+      <c r="H4">
+        <v>57240135</v>
+      </c>
+      <c r="I4">
+        <v>56880838</v>
+      </c>
+      <c r="J4">
+        <v>57323573</v>
+      </c>
+      <c r="K4">
+        <v>56395048</v>
+      </c>
+      <c r="L4">
+        <v>53633152</v>
+      </c>
+      <c r="M4">
+        <v>55939575</v>
+      </c>
+      <c r="N4" s="1">
+        <v>53787030</v>
+      </c>
+      <c r="O4" s="1">
+        <v>51212424</v>
+      </c>
+      <c r="P4" s="1">
+        <v>58538396</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>52879209</v>
+      </c>
+      <c r="R4" s="1">
+        <v>57636436</v>
+      </c>
+      <c r="S4" s="1">
+        <v>53939699</v>
+      </c>
+      <c r="T4" s="1">
+        <v>57678625</v>
+      </c>
+      <c r="U4" s="1">
+        <v>57500743</v>
+      </c>
+      <c r="V4" s="1">
+        <v>56320482</v>
+      </c>
+      <c r="W4" s="1">
+        <v>57600015</v>
+      </c>
+      <c r="X4" s="1">
+        <v>55997879</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>58523214</v>
+      </c>
+      <c r="Z4">
+        <v>57836115</v>
+      </c>
+      <c r="AA4">
+        <v>51268614</v>
+      </c>
+      <c r="AB4">
+        <v>51887939</v>
+      </c>
+      <c r="AC4">
+        <v>51727638</v>
+      </c>
+      <c r="AD4">
+        <v>58375501</v>
+      </c>
+      <c r="AE4">
+        <v>56863854</v>
+      </c>
+      <c r="AF4">
+        <v>58389905</v>
+      </c>
+      <c r="AG4">
+        <v>59373037</v>
+      </c>
+      <c r="AH4">
+        <v>57323080</v>
+      </c>
+      <c r="AI4">
+        <v>59756313</v>
+      </c>
+      <c r="AJ4">
+        <v>56506834</v>
+      </c>
+      <c r="AK4">
+        <v>54429943</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>52113221</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>51143145</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>58601668</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>55143659</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>59327649</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>58441728</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>59517121</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>58044508</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>60164491</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>61520444</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>58641624</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>58585561</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>58193858</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>51225044</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>59823831</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>59434559</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>65092205</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>62261487</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>66092824</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>64930644</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>64588750</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>66559567</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>63745056</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>63977462</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1416,7 +1915,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1457,7 +1956,7 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +1997,7 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1539,7 +2038,7 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1580,7 +2079,7 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1624,7 +2123,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1665,7 +2164,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +2205,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1747,7 +2246,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1788,7 +2287,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1829,7 +2328,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +2411,7 @@
       <c r="BI17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/예측 코드- Python/예측 코드- Python/지역별 방문자 수.xlsx
@@ -1089,13 +1089,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1:BU1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="61" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="73" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.3">
@@ -1503,6 +1504,42 @@
       <c r="BI2" s="1">
         <v>39397941</v>
       </c>
+      <c r="BJ2">
+        <v>40252885</v>
+      </c>
+      <c r="BK2">
+        <v>37064583</v>
+      </c>
+      <c r="BL2">
+        <v>42389777</v>
+      </c>
+      <c r="BM2">
+        <v>39808297</v>
+      </c>
+      <c r="BN2">
+        <v>44459764</v>
+      </c>
+      <c r="BO2">
+        <v>43673242</v>
+      </c>
+      <c r="BP2">
+        <v>45989669</v>
+      </c>
+      <c r="BQ2">
+        <v>47870485</v>
+      </c>
+      <c r="BR2">
+        <v>44049658</v>
+      </c>
+      <c r="BS2">
+        <v>45686989</v>
+      </c>
+      <c r="BT2">
+        <v>41121245</v>
+      </c>
+      <c r="BU2">
+        <v>42858260</v>
+      </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1688,6 +1725,42 @@
       <c r="BI3" s="1">
         <v>251897976</v>
       </c>
+      <c r="BJ3">
+        <v>245677734</v>
+      </c>
+      <c r="BK3">
+        <v>232608482</v>
+      </c>
+      <c r="BL3">
+        <v>266872287</v>
+      </c>
+      <c r="BM3">
+        <v>247531331</v>
+      </c>
+      <c r="BN3">
+        <v>267742281</v>
+      </c>
+      <c r="BO3">
+        <v>249295042</v>
+      </c>
+      <c r="BP3">
+        <v>254800719</v>
+      </c>
+      <c r="BQ3">
+        <v>248729084</v>
+      </c>
+      <c r="BR3">
+        <v>247742198</v>
+      </c>
+      <c r="BS3">
+        <v>259662875</v>
+      </c>
+      <c r="BT3">
+        <v>249119146</v>
+      </c>
+      <c r="BU3">
+        <v>250957678</v>
+      </c>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1873,23 +1946,119 @@
       <c r="BI4" s="1">
         <v>63977462</v>
       </c>
+      <c r="BJ4">
+        <v>63769618</v>
+      </c>
+      <c r="BK4">
+        <v>57252339</v>
+      </c>
+      <c r="BL4">
+        <v>66938292</v>
+      </c>
+      <c r="BM4">
+        <v>63164335</v>
+      </c>
+      <c r="BN4">
+        <v>67883391</v>
+      </c>
+      <c r="BO4">
+        <v>63848833</v>
+      </c>
+      <c r="BP4">
+        <v>64786381</v>
+      </c>
+      <c r="BQ4">
+        <v>64924457</v>
+      </c>
+      <c r="BR4">
+        <v>65324191</v>
+      </c>
+      <c r="BS4">
+        <v>67773505</v>
+      </c>
+      <c r="BT4">
+        <v>64890953</v>
+      </c>
+      <c r="BU4">
+        <v>63137268</v>
+      </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="B5">
+        <v>48005126</v>
+      </c>
+      <c r="C5">
+        <v>46715874</v>
+      </c>
+      <c r="D5">
+        <v>53369760</v>
+      </c>
+      <c r="E5">
+        <v>49892184</v>
+      </c>
+      <c r="F5">
+        <v>55246459</v>
+      </c>
+      <c r="G5">
+        <v>52290332</v>
+      </c>
+      <c r="H5">
+        <v>54002475</v>
+      </c>
+      <c r="I5">
+        <v>53962645</v>
+      </c>
+      <c r="J5">
+        <v>55569203</v>
+      </c>
+      <c r="K5">
+        <v>53212279</v>
+      </c>
+      <c r="L5">
+        <v>50591978</v>
+      </c>
+      <c r="M5">
+        <v>51340435</v>
+      </c>
+      <c r="N5" s="1">
+        <v>50527283</v>
+      </c>
+      <c r="O5" s="1">
+        <v>49164894</v>
+      </c>
+      <c r="P5" s="1">
+        <v>55658675</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>50564746</v>
+      </c>
+      <c r="R5" s="1">
+        <v>55571973</v>
+      </c>
+      <c r="S5" s="1">
+        <v>52367288</v>
+      </c>
+      <c r="T5" s="1">
+        <v>54843436</v>
+      </c>
+      <c r="U5" s="1">
+        <v>55305865</v>
+      </c>
+      <c r="V5" s="1">
+        <v>55489377</v>
+      </c>
+      <c r="W5" s="1">
+        <v>54892528</v>
+      </c>
+      <c r="X5" s="1">
+        <v>54028038</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>53514923</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
